--- a/data/parameters_1.xlsx
+++ b/data/parameters_1.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charliemacvic/PycharmProjects/ai-project-post-break/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeboersma/School/AI Project/ai-project-post-break/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B96FC61E-A15D-E544-B6AB-68D704A42BB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6DACC4-D473-FD4E-AF27-3CE50194E1C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="6120" windowWidth="25040" windowHeight="14500" xr2:uid="{574977EF-EFB9-4E4E-8F61-28EDC0E6313E}"/>
+    <workbookView xWindow="1960" yWindow="3500" windowWidth="25040" windowHeight="14500" xr2:uid="{574977EF-EFB9-4E4E-8F61-28EDC0E6313E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Parameters" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -49,7 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -397,12 +397,12 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,7 +410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -418,7 +418,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -426,7 +426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -434,7 +434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
